--- a/data/3FTx/raw/3FTs vs receptor dec12.xlsx
+++ b/data/3FTx/raw/3FTs vs receptor dec12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiassenoner/Documents/projects/protspace3d/data/3FTx/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiassenoner/Documents/projects/protspace3d/data/3FTx/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D3100-2160-2142-9D65-5C488551E316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B617F844-E550-2A45-B6A5-E0ADFAD22D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,9 +505,6 @@
   </si>
   <si>
     <t>Laticauda semifasciata</t>
-  </si>
-  <si>
-    <t>P60675</t>
   </si>
   <si>
     <t>P01426</t>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>C0HJB0</t>
+  </si>
+  <si>
+    <t>P60775</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,13 +1569,13 @@
         <v>122</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1608,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1644,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>46</v>
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>46</v>
@@ -1727,7 +1727,7 @@
         <v>124</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M7" s="16">
         <v>2</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M8" s="9">
         <v>2</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>27</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" s="9">
         <v>2</v>
@@ -1822,7 +1822,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>64</v>
@@ -1857,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>64</v>
@@ -1893,7 +1893,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>64</v>
@@ -1919,22 +1919,22 @@
     <row r="15" spans="1:14" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>235</v>
-      </c>
       <c r="D15" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
@@ -1942,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="K15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>233</v>
       </c>
       <c r="M15" s="23">
         <v>4</v>
@@ -1969,13 +1969,13 @@
         <v>47</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>76</v>
@@ -2005,13 +2005,13 @@
         <v>47</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>77</v>
@@ -2044,13 +2044,13 @@
         <v>47</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>78</v>
@@ -2080,13 +2080,13 @@
         <v>47</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>79</v>
@@ -2116,13 +2116,13 @@
         <v>47</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>80</v>
@@ -2156,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>175</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36" t="s">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>135</v>
@@ -2224,10 +2224,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L28" s="29" t="s">
         <v>110</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>125</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="D30" s="31" t="s">
         <v>179</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>180</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>8</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="36" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>98</v>
@@ -2602,7 +2602,7 @@
         <v>105</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>83</v>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M38" s="16">
         <v>8</v>
@@ -2628,27 +2628,27 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J39" s="22">
         <v>4</v>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M39" s="9">
         <v>8</v>
@@ -2675,7 +2675,7 @@
         <v>86</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>87</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="K41" s="30"/>
       <c r="L41" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M41" s="16">
         <v>9</v>
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="K46" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>46</v>
@@ -2836,13 +2836,13 @@
         <v>154</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H48" s="29" t="s">
         <v>64</v>
@@ -2852,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>110</v>
@@ -2881,7 +2881,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>64</v>
@@ -2891,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L49" s="31" t="s">
         <v>110</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="50" spans="2:14" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B50" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>228</v>
-      </c>
       <c r="D50" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>153</v>
@@ -2917,13 +2917,13 @@
         <v>48</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J50" s="32">
         <v>5</v>
@@ -2944,22 +2944,22 @@
     </row>
     <row r="52" spans="2:14" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="B52" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="48" t="s">
         <v>161</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>162</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>149</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52" s="23" t="s">
         <v>64</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="53" spans="2:14" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>159</v>
@@ -2997,7 +2997,7 @@
         <v>48</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>64</v>
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L53" s="26" t="s">
         <v>110</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="54" spans="2:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>159</v>
@@ -3036,7 +3036,7 @@
         <v>48</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>64</v>
@@ -3046,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L54" s="23" t="s">
         <v>110</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="56" spans="2:14" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>220</v>
-      </c>
       <c r="D56" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E56" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="49" t="s">
-        <v>212</v>
-      </c>
       <c r="G56" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H56" s="49" t="s">
         <v>87</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J56" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="49" t="s">
@@ -3102,27 +3102,27 @@
     </row>
     <row r="57" spans="2:14" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="54" t="s">
-        <v>222</v>
-      </c>
       <c r="D57" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F57" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
       <c r="I57" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J57" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K57" s="57"/>
       <c r="L57" s="55" t="s">
@@ -3147,16 +3147,16 @@
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F60" s="58"/>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
       <c r="I60" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J60" s="60"/>
       <c r="K60" s="60"/>
@@ -3166,10 +3166,10 @@
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
       <c r="D61" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="58"/>
       <c r="G61" s="58"/>
@@ -3183,10 +3183,10 @@
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
       <c r="D62" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F62" s="58"/>
       <c r="G62" s="58"/>
@@ -3200,10 +3200,10 @@
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
       <c r="D63" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="58" t="s">
         <v>236</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>237</v>
       </c>
       <c r="F63" s="58"/>
       <c r="G63" s="58"/>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="64" spans="2:14" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="D64" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="58" t="s">
         <v>239</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>240</v>
       </c>
       <c r="F64" s="58"/>
       <c r="G64" s="58"/>
@@ -3240,17 +3240,17 @@
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65" s="58" t="s">
         <v>48</v>
       </c>
       <c r="G65" s="58"/>
       <c r="H65" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I65" s="58"/>
       <c r="J65" s="60"/>
@@ -3261,10 +3261,10 @@
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="E66" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="58"/>
@@ -3278,17 +3278,17 @@
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
       <c r="D67" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" s="58"/>
       <c r="F67" s="58" t="s">
         <v>48</v>
       </c>
       <c r="G67" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" s="58" t="s">
         <v>201</v>
-      </c>
-      <c r="H67" s="58" t="s">
-        <v>202</v>
       </c>
       <c r="I67" s="58"/>
       <c r="J67" s="60"/>
